--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col2a1-Ddr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col2a1-Ddr1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.05716333333333334</v>
+        <v>0.1581976666666667</v>
       </c>
       <c r="H2">
-        <v>0.17149</v>
+        <v>0.474593</v>
       </c>
       <c r="I2">
-        <v>0.06272049459548226</v>
+        <v>0.1400666049254827</v>
       </c>
       <c r="J2">
-        <v>0.06272049459548226</v>
+        <v>0.1400666049254826</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.353194</v>
+        <v>0.166446</v>
       </c>
       <c r="N2">
-        <v>1.059582</v>
+        <v>0.4993379999999999</v>
       </c>
       <c r="O2">
-        <v>0.01734490358674178</v>
+        <v>0.008607068890887148</v>
       </c>
       <c r="P2">
-        <v>0.01734490358674178</v>
+        <v>0.008607068890887149</v>
       </c>
       <c r="Q2">
-        <v>0.02018974635333334</v>
+        <v>0.026331368826</v>
       </c>
       <c r="R2">
-        <v>0.18170771718</v>
+        <v>0.236982319434</v>
       </c>
       <c r="S2">
-        <v>0.001087880931671399</v>
+        <v>0.001205562917906302</v>
       </c>
       <c r="T2">
-        <v>0.001087880931671399</v>
+        <v>0.001205562917906302</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.05716333333333334</v>
+        <v>0.1581976666666667</v>
       </c>
       <c r="H3">
-        <v>0.17149</v>
+        <v>0.474593</v>
       </c>
       <c r="I3">
-        <v>0.06272049459548226</v>
+        <v>0.1400666049254827</v>
       </c>
       <c r="J3">
-        <v>0.06272049459548226</v>
+        <v>0.1400666049254826</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>5.670859</v>
       </c>
       <c r="O3">
-        <v>0.09282953335278149</v>
+        <v>0.09774836700492934</v>
       </c>
       <c r="P3">
-        <v>0.09282953335278149</v>
+        <v>0.09774836700492935</v>
       </c>
       <c r="Q3">
-        <v>0.1080550677677778</v>
+        <v>0.2990388872652223</v>
       </c>
       <c r="R3">
-        <v>0.9724956099100001</v>
+        <v>2.691349985387</v>
       </c>
       <c r="S3">
-        <v>0.005822314244954272</v>
+        <v>0.01369128190339052</v>
       </c>
       <c r="T3">
-        <v>0.005822314244954272</v>
+        <v>0.01369128190339052</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.05716333333333334</v>
+        <v>0.1581976666666667</v>
       </c>
       <c r="H4">
-        <v>0.17149</v>
+        <v>0.474593</v>
       </c>
       <c r="I4">
-        <v>0.06272049459548226</v>
+        <v>0.1400666049254827</v>
       </c>
       <c r="J4">
-        <v>0.06272049459548226</v>
+        <v>0.1400666049254826</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.89429033333333</v>
+        <v>17.13435266666667</v>
       </c>
       <c r="N4">
-        <v>53.68287099999999</v>
+        <v>51.403058</v>
       </c>
       <c r="O4">
-        <v>0.8787656092256156</v>
+        <v>0.8860324297535294</v>
       </c>
       <c r="P4">
-        <v>0.8787656092256156</v>
+        <v>0.8860324297535294</v>
       </c>
       <c r="Q4">
-        <v>1.022897283087778</v>
+        <v>2.710614611710445</v>
       </c>
       <c r="R4">
-        <v>9.206075547789998</v>
+        <v>24.395531505394</v>
       </c>
       <c r="S4">
-        <v>0.0551166136441309</v>
+        <v>0.1241035542894531</v>
       </c>
       <c r="T4">
-        <v>0.0551166136441309</v>
+        <v>0.124103554289453</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.05716333333333334</v>
+        <v>0.1581976666666667</v>
       </c>
       <c r="H5">
-        <v>0.17149</v>
+        <v>0.474593</v>
       </c>
       <c r="I5">
-        <v>0.06272049459548226</v>
+        <v>0.1400666049254827</v>
       </c>
       <c r="J5">
-        <v>0.06272049459548226</v>
+        <v>0.1400666049254826</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2252136666666666</v>
+        <v>0.1472056666666667</v>
       </c>
       <c r="N5">
-        <v>0.6756409999999999</v>
+        <v>0.441617</v>
       </c>
       <c r="O5">
-        <v>0.01105995383486111</v>
+        <v>0.007612134350654087</v>
       </c>
       <c r="P5">
-        <v>0.01105995383486111</v>
+        <v>0.007612134350654088</v>
       </c>
       <c r="Q5">
-        <v>0.01287396389888889</v>
+        <v>0.02328759298677778</v>
       </c>
       <c r="R5">
-        <v>0.11586567509</v>
+        <v>0.209588336881</v>
       </c>
       <c r="S5">
-        <v>0.0006936857747256896</v>
+        <v>0.001066205814732761</v>
       </c>
       <c r="T5">
-        <v>0.0006936857747256896</v>
+        <v>0.001066205814732761</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>2.381805</v>
       </c>
       <c r="I6">
-        <v>0.871117777304756</v>
+        <v>0.7029419733214338</v>
       </c>
       <c r="J6">
-        <v>0.8711177773047561</v>
+        <v>0.7029419733214337</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.353194</v>
+        <v>0.166446</v>
       </c>
       <c r="N6">
-        <v>1.059582</v>
+        <v>0.4993379999999999</v>
       </c>
       <c r="O6">
-        <v>0.01734490358674178</v>
+        <v>0.008607068890887148</v>
       </c>
       <c r="P6">
-        <v>0.01734490358674178</v>
+        <v>0.008607068890887149</v>
       </c>
       <c r="Q6">
-        <v>0.28041307839</v>
+        <v>0.13214730501</v>
       </c>
       <c r="R6">
-        <v>2.52371770551</v>
+        <v>1.18932574509</v>
       </c>
       <c r="S6">
-        <v>0.01510945386004779</v>
+        <v>0.006050269990673736</v>
       </c>
       <c r="T6">
-        <v>0.01510945386004779</v>
+        <v>0.006050269990673736</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>2.381805</v>
       </c>
       <c r="I7">
-        <v>0.871117777304756</v>
+        <v>0.7029419733214338</v>
       </c>
       <c r="J7">
-        <v>0.8711177773047561</v>
+        <v>0.7029419733214337</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>5.670859</v>
       </c>
       <c r="O7">
-        <v>0.09282953335278149</v>
+        <v>0.09774836700492934</v>
       </c>
       <c r="P7">
-        <v>0.09282953335278149</v>
+        <v>0.09774836700492935</v>
       </c>
       <c r="Q7">
         <v>1.500764480055</v>
@@ -883,10 +883,10 @@
         <v>13.506880320495</v>
       </c>
       <c r="S7">
-        <v>0.08086545676251274</v>
+        <v>0.06871142999139276</v>
       </c>
       <c r="T7">
-        <v>0.08086545676251274</v>
+        <v>0.06871142999139276</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>2.381805</v>
       </c>
       <c r="I8">
-        <v>0.871117777304756</v>
+        <v>0.7029419733214338</v>
       </c>
       <c r="J8">
-        <v>0.8711177773047561</v>
+        <v>0.7029419733214337</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.89429033333333</v>
+        <v>17.13435266666667</v>
       </c>
       <c r="N8">
-        <v>53.68287099999999</v>
+        <v>51.403058</v>
       </c>
       <c r="O8">
-        <v>0.8787656092256156</v>
+        <v>0.8860324297535294</v>
       </c>
       <c r="P8">
-        <v>0.8787656092256156</v>
+        <v>0.8860324297535294</v>
       </c>
       <c r="Q8">
-        <v>14.206903395795</v>
+        <v>13.60356228441</v>
       </c>
       <c r="R8">
-        <v>127.862130562155</v>
+        <v>122.43206055969</v>
       </c>
       <c r="S8">
-        <v>0.7655083442804781</v>
+        <v>0.6228293845977306</v>
       </c>
       <c r="T8">
-        <v>0.7655083442804782</v>
+        <v>0.6228293845977305</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>2.381805</v>
       </c>
       <c r="I9">
-        <v>0.871117777304756</v>
+        <v>0.7029419733214338</v>
       </c>
       <c r="J9">
-        <v>0.8711177773047561</v>
+        <v>0.7029419733214337</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2252136666666666</v>
+        <v>0.1472056666666667</v>
       </c>
       <c r="N9">
-        <v>0.6756409999999999</v>
+        <v>0.441617</v>
       </c>
       <c r="O9">
-        <v>0.01105995383486111</v>
+        <v>0.007612134350654087</v>
       </c>
       <c r="P9">
-        <v>0.01105995383486111</v>
+        <v>0.007612134350654088</v>
       </c>
       <c r="Q9">
-        <v>0.178805012445</v>
+        <v>0.116871730965</v>
       </c>
       <c r="R9">
-        <v>1.609245112005</v>
+        <v>1.051845578685</v>
       </c>
       <c r="S9">
-        <v>0.009634522401717423</v>
+        <v>0.005350888741636656</v>
       </c>
       <c r="T9">
-        <v>0.009634522401717424</v>
+        <v>0.005350888741636655</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.05636566666666667</v>
+        <v>0.1199896666666667</v>
       </c>
       <c r="H10">
-        <v>0.169097</v>
+        <v>0.359969</v>
       </c>
       <c r="I10">
-        <v>0.06184528237572023</v>
+        <v>0.106237630366274</v>
       </c>
       <c r="J10">
-        <v>0.06184528237572024</v>
+        <v>0.106237630366274</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.353194</v>
+        <v>0.166446</v>
       </c>
       <c r="N10">
-        <v>1.059582</v>
+        <v>0.4993379999999999</v>
       </c>
       <c r="O10">
-        <v>0.01734490358674178</v>
+        <v>0.008607068890887148</v>
       </c>
       <c r="P10">
-        <v>0.01734490358674178</v>
+        <v>0.008607068890887149</v>
       </c>
       <c r="Q10">
-        <v>0.01990801527266667</v>
+        <v>0.019971800058</v>
       </c>
       <c r="R10">
-        <v>0.179172137454</v>
+        <v>0.179746200522</v>
       </c>
       <c r="S10">
-        <v>0.001072700460101688</v>
+        <v>0.0009143946033671246</v>
       </c>
       <c r="T10">
-        <v>0.001072700460101688</v>
+        <v>0.0009143946033671245</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.05636566666666667</v>
+        <v>0.1199896666666667</v>
       </c>
       <c r="H11">
-        <v>0.169097</v>
+        <v>0.359969</v>
       </c>
       <c r="I11">
-        <v>0.06184528237572023</v>
+        <v>0.106237630366274</v>
       </c>
       <c r="J11">
-        <v>0.06184528237572024</v>
+        <v>0.106237630366274</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>5.670859</v>
       </c>
       <c r="O11">
-        <v>0.09282953335278149</v>
+        <v>0.09774836700492934</v>
       </c>
       <c r="P11">
-        <v>0.09282953335278149</v>
+        <v>0.09774836700492935</v>
       </c>
       <c r="Q11">
-        <v>0.1065472493692222</v>
+        <v>0.2268148270412222</v>
       </c>
       <c r="R11">
-        <v>0.958925244323</v>
+        <v>2.041333443371</v>
       </c>
       <c r="S11">
-        <v>0.00574106870300911</v>
+        <v>0.01038455488277657</v>
       </c>
       <c r="T11">
-        <v>0.005741068703009111</v>
+        <v>0.01038455488277657</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.05636566666666667</v>
+        <v>0.1199896666666667</v>
       </c>
       <c r="H12">
-        <v>0.169097</v>
+        <v>0.359969</v>
       </c>
       <c r="I12">
-        <v>0.06184528237572023</v>
+        <v>0.106237630366274</v>
       </c>
       <c r="J12">
-        <v>0.06184528237572024</v>
+        <v>0.106237630366274</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.89429033333333</v>
+        <v>17.13435266666667</v>
       </c>
       <c r="N12">
-        <v>53.68287099999999</v>
+        <v>51.403058</v>
       </c>
       <c r="O12">
-        <v>0.8787656092256156</v>
+        <v>0.8860324297535294</v>
       </c>
       <c r="P12">
-        <v>0.8787656092256156</v>
+        <v>0.8860324297535294</v>
       </c>
       <c r="Q12">
-        <v>1.008623604165222</v>
+        <v>2.055945265022444</v>
       </c>
       <c r="R12">
-        <v>9.077612437486998</v>
+        <v>18.503507385202</v>
       </c>
       <c r="S12">
-        <v>0.05434750724463002</v>
+        <v>0.09412998576468708</v>
       </c>
       <c r="T12">
-        <v>0.05434750724463003</v>
+        <v>0.09412998576468705</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.05636566666666667</v>
+        <v>0.1199896666666667</v>
       </c>
       <c r="H13">
-        <v>0.169097</v>
+        <v>0.359969</v>
       </c>
       <c r="I13">
-        <v>0.06184528237572023</v>
+        <v>0.106237630366274</v>
       </c>
       <c r="J13">
-        <v>0.06184528237572024</v>
+        <v>0.106237630366274</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2252136666666666</v>
+        <v>0.1472056666666667</v>
       </c>
       <c r="N13">
-        <v>0.6756409999999999</v>
+        <v>0.441617</v>
       </c>
       <c r="O13">
-        <v>0.01105995383486111</v>
+        <v>0.007612134350654087</v>
       </c>
       <c r="P13">
-        <v>0.01105995383486111</v>
+        <v>0.007612134350654088</v>
       </c>
       <c r="Q13">
-        <v>0.01269431846411111</v>
+        <v>0.01766315887477778</v>
       </c>
       <c r="R13">
-        <v>0.114248866177</v>
+        <v>0.158968429873</v>
       </c>
       <c r="S13">
-        <v>0.0006840059679794152</v>
+        <v>0.0008086951154432059</v>
       </c>
       <c r="T13">
-        <v>0.0006840059679794153</v>
+        <v>0.0008086951154432058</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.003934</v>
+        <v>0.05732366666666666</v>
       </c>
       <c r="H14">
-        <v>0.011802</v>
+        <v>0.171971</v>
       </c>
       <c r="I14">
-        <v>0.004316445724041528</v>
+        <v>0.05075379138680971</v>
       </c>
       <c r="J14">
-        <v>0.004316445724041528</v>
+        <v>0.05075379138680969</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1299,28 +1299,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.353194</v>
+        <v>0.166446</v>
       </c>
       <c r="N14">
-        <v>1.059582</v>
+        <v>0.4993379999999999</v>
       </c>
       <c r="O14">
-        <v>0.01734490358674178</v>
+        <v>0.008607068890887148</v>
       </c>
       <c r="P14">
-        <v>0.01734490358674178</v>
+        <v>0.008607068890887149</v>
       </c>
       <c r="Q14">
-        <v>0.001389465196</v>
+        <v>0.009541295021999999</v>
       </c>
       <c r="R14">
-        <v>0.012505186764</v>
+        <v>0.08587165519799998</v>
       </c>
       <c r="S14">
-        <v>7.486833492090412E-05</v>
+        <v>0.0004368413789399859</v>
       </c>
       <c r="T14">
-        <v>7.486833492090414E-05</v>
+        <v>0.0004368413789399859</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.003934</v>
+        <v>0.05732366666666666</v>
       </c>
       <c r="H15">
-        <v>0.011802</v>
+        <v>0.171971</v>
       </c>
       <c r="I15">
-        <v>0.004316445724041528</v>
+        <v>0.05075379138680971</v>
       </c>
       <c r="J15">
-        <v>0.004316445724041528</v>
+        <v>0.05075379138680969</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>5.670859</v>
       </c>
       <c r="O15">
-        <v>0.09282953335278149</v>
+        <v>0.09774836700492934</v>
       </c>
       <c r="P15">
-        <v>0.09282953335278149</v>
+        <v>0.09774836700492935</v>
       </c>
       <c r="Q15">
-        <v>0.007436386435333333</v>
+        <v>0.1083581436765555</v>
       </c>
       <c r="R15">
-        <v>0.06692747791799999</v>
+        <v>0.9752232930889999</v>
       </c>
       <c r="S15">
-        <v>0.000400693642305384</v>
+        <v>0.004961100227369497</v>
       </c>
       <c r="T15">
-        <v>0.0004006936423053841</v>
+        <v>0.004961100227369496</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.003934</v>
+        <v>0.05732366666666666</v>
       </c>
       <c r="H16">
-        <v>0.011802</v>
+        <v>0.171971</v>
       </c>
       <c r="I16">
-        <v>0.004316445724041528</v>
+        <v>0.05075379138680971</v>
       </c>
       <c r="J16">
-        <v>0.004316445724041528</v>
+        <v>0.05075379138680969</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.89429033333333</v>
+        <v>17.13435266666667</v>
       </c>
       <c r="N16">
-        <v>53.68287099999999</v>
+        <v>51.403058</v>
       </c>
       <c r="O16">
-        <v>0.8787656092256156</v>
+        <v>0.8860324297535294</v>
       </c>
       <c r="P16">
-        <v>0.8787656092256156</v>
+        <v>0.8860324297535294</v>
       </c>
       <c r="Q16">
-        <v>0.07039613817133332</v>
+        <v>0.9822039208131111</v>
       </c>
       <c r="R16">
-        <v>0.6335652435419999</v>
+        <v>8.839835287318</v>
       </c>
       <c r="S16">
-        <v>0.003793144056376656</v>
+        <v>0.04496950510165876</v>
       </c>
       <c r="T16">
-        <v>0.003793144056376657</v>
+        <v>0.04496950510165874</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.003934</v>
+        <v>0.05732366666666666</v>
       </c>
       <c r="H17">
-        <v>0.011802</v>
+        <v>0.171971</v>
       </c>
       <c r="I17">
-        <v>0.004316445724041528</v>
+        <v>0.05075379138680971</v>
       </c>
       <c r="J17">
-        <v>0.004316445724041528</v>
+        <v>0.05075379138680969</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2252136666666666</v>
+        <v>0.1472056666666667</v>
       </c>
       <c r="N17">
-        <v>0.6756409999999999</v>
+        <v>0.441617</v>
       </c>
       <c r="O17">
-        <v>0.01105995383486111</v>
+        <v>0.007612134350654087</v>
       </c>
       <c r="P17">
-        <v>0.01105995383486111</v>
+        <v>0.007612134350654088</v>
       </c>
       <c r="Q17">
-        <v>0.0008859905646666666</v>
+        <v>0.008438368567444444</v>
       </c>
       <c r="R17">
-        <v>0.007973915081999999</v>
+        <v>0.075945317107</v>
       </c>
       <c r="S17">
-        <v>4.773969043858293E-05</v>
+        <v>0.0003863446788414657</v>
       </c>
       <c r="T17">
-        <v>4.773969043858295E-05</v>
+        <v>0.0003863446788414656</v>
       </c>
     </row>
   </sheetData>
